--- a/Capability_Q2_RequirementsLibrary.xlsx
+++ b/Capability_Q2_RequirementsLibrary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26522"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edwardslifesciences.sharepoint.com/sites/ProductSecurityBacklog/Shared Documents/Product Security Requirements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edwardslifesciences-my.sharepoint.com/personal/christopher_patrick_edwards_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7951CB3D-EEB0-4796-B7B1-0B1C941DB389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{7951CB3D-EEB0-4796-B7B1-0B1C941DB389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1431D7B9-244D-4B70-9614-BEE630EEBD69}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="7" xr2:uid="{380EBF5A-5149-4543-9EAF-BA3EC202F85C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{380EBF5A-5149-4543-9EAF-BA3EC202F85C}"/>
   </bookViews>
   <sheets>
     <sheet name="App Gateway" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="333">
   <si>
     <t>Application Gateway Security Requirements</t>
   </si>
@@ -1370,12 +1370,24 @@
   <si>
     <t>A "CanNotDelete" resource lock shall be configured for Azure WAF {POLICY_NAME}, limiting access to read and modify for authorized identities.</t>
   </si>
+  <si>
+    <t>Instance</t>
+  </si>
+  <si>
+    <t>VNV</t>
+  </si>
+  <si>
+    <t>FVNV</t>
+  </si>
+  <si>
+    <t>Galaxy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1508,7 +1520,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1527,8 +1539,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1658,19 +1676,6 @@
       <top style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </bottom>
@@ -1899,11 +1904,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0CECE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0CECE"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0CECE"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0CECE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0CECE"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1954,34 +2034,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1999,14 +2076,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2018,60 +2091,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2081,16 +2154,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2107,11 +2180,66 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2316,13 +2444,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FFA6A6A6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FFA6A6A6"/>
         </left>
@@ -2340,7 +2461,7 @@
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color rgb="FFA6A6A6"/>
         </bottom>
       </border>
     </dxf>
@@ -2352,6 +2473,45 @@
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -2385,38 +2545,6 @@
           <color rgb="FFD0CECE"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2509,14 +2637,14 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="1" tint="0.499984740745262"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2723,13 +2851,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="1" tint="0.499984740745262"/>
@@ -2758,6 +2879,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2805,43 +2933,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A97D57AB-2AC7-4486-9033-81C30C4A8336}" name="Table2" displayName="Table2" ref="A1:D41" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" headerRowBorderDxfId="32" tableBorderDxfId="33" totalsRowBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A97D57AB-2AC7-4486-9033-81C30C4A8336}" name="Table2" displayName="Table2" ref="A1:D41" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
   <autoFilter ref="A1:D41" xr:uid="{A97D57AB-2AC7-4486-9033-81C30C4A8336}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{01530252-4365-4D6F-AEE0-3E87A3A101E4}" name="Application Gateway Security Requirements" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{51038F5F-462C-4DFF-A44B-871CD73C5F88}" name="Rationale" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{61E5F71B-2BDD-4BC4-9F60-C6A76D3F3E85}" name="Review Notes" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{1F20B7B0-802D-4FCA-BFE0-152C932C1526}" name="Column1" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{01530252-4365-4D6F-AEE0-3E87A3A101E4}" name="Application Gateway Security Requirements" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{51038F5F-462C-4DFF-A44B-871CD73C5F88}" name="Rationale" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{61E5F71B-2BDD-4BC4-9F60-C6A76D3F3E85}" name="Review Notes" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{1F20B7B0-802D-4FCA-BFE0-152C932C1526}" name="Instance" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99CE4404-D9DB-4D50-8FA2-676867FE5D37}" name="Table3" displayName="Table3" ref="A1:C57" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99CE4404-D9DB-4D50-8FA2-676867FE5D37}" name="Table3" displayName="Table3" ref="A1:C57" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A1:C57" xr:uid="{C2FBD476-4465-43A1-B61F-84D6FDF879A8}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{923FC27E-1D4B-4769-A346-3307016A94D1}" name="SQL database requirements" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{A66C4BFA-5D54-4310-8D26-EC95A3D0D98F}" name="Review Notes" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{4B959A0D-1E5A-42C6-9F01-40B637DB73B4}" name="Column1" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{923FC27E-1D4B-4769-A346-3307016A94D1}" name="SQL database requirements" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{A66C4BFA-5D54-4310-8D26-EC95A3D0D98F}" name="Review Notes" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{4B959A0D-1E5A-42C6-9F01-40B637DB73B4}" name="Column1" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A1CEC63C-E2C5-493D-B0FD-C7C51D1AC07E}" name="Table24" displayName="Table24" ref="A1:B13" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="20">
-  <autoFilter ref="A1:B13" xr:uid="{008E7E2E-EBE7-4932-B91B-E15147F72B54}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F8220DAB-B606-48B4-AEA1-C2C2825CFB7B}" name="Key-Vault requirements" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{C443864C-C816-4F2D-AF7E-8C3078F0913D}" name="Review Notes" dataDxfId="18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A1CEC63C-E2C5-493D-B0FD-C7C51D1AC07E}" name="Table24" displayName="Table24" ref="A1:C13" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22">
+  <autoFilter ref="A1:C13" xr:uid="{008E7E2E-EBE7-4932-B91B-E15147F72B54}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F8220DAB-B606-48B4-AEA1-C2C2825CFB7B}" name="Key-Vault requirements" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{C443864C-C816-4F2D-AF7E-8C3078F0913D}" name="Review Notes" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{D72E8B88-380E-49BE-8029-0F447522989F}" name="Instance" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D9F3BF36-DD61-478E-8134-D86FA85D4123}" name="Table8" displayName="Table8" ref="A1:C35" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D9F3BF36-DD61-478E-8134-D86FA85D4123}" name="Table8" displayName="Table8" ref="A1:C35" totalsRowShown="0" headerRowDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A1:C35" xr:uid="{D9F3BF36-DD61-478E-8134-D86FA85D4123}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1A1C87BE-9522-4875-B6B3-06A76F57541B}" name="Security Requirement"/>
@@ -2853,10 +2982,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8272FBC1-CE62-48B6-8950-F31AF259FA13}" name="Table5" displayName="Table5" ref="A1:A19" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8272FBC1-CE62-48B6-8950-F31AF259FA13}" name="Table5" displayName="Table5" ref="A1:A19" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
   <autoFilter ref="A1:A19" xr:uid="{8272FBC1-CE62-48B6-8950-F31AF259FA13}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8901FCC5-DCA4-4E29-B6E1-0DEC4A084FA6}" name="Azure Blob Storage Requirement" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{8901FCC5-DCA4-4E29-B6E1-0DEC4A084FA6}" name="Azure Blob Storage Requirement" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2875,7 +3004,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{536A9444-A6E0-4A80-94A8-81184A7FBF1E}" name="Table7" displayName="Table7" ref="A1:C19" totalsRowShown="0" headerRowBorderDxfId="9" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{536A9444-A6E0-4A80-94A8-81184A7FBF1E}" name="Table7" displayName="Table7" ref="A1:C19" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A1:C19" xr:uid="{536A9444-A6E0-4A80-94A8-81184A7FBF1E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C28B2D10-E78C-4F53-831C-8F7F83EF11EE}" name="Security Requirement"/>
@@ -2887,23 +3016,23 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5900E916-04C0-499B-9B95-E1E94629E58C}" name="Table6" displayName="Table6" ref="A1:C21" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5900E916-04C0-499B-9B95-E1E94629E58C}" name="Table6" displayName="Table6" ref="A1:C21" totalsRowShown="0" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A1:C21" xr:uid="{5900E916-04C0-499B-9B95-E1E94629E58C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C4418B70-772B-459A-ABF9-22ECA3944F95}" name="Security Requirement" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{1877231E-86C6-495D-8E33-A24491FC343D}" name="Rationale" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{8B9E6CF2-B35E-45EF-9DE1-7F3D31FFA96C}" name="Notes" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C4418B70-772B-459A-ABF9-22ECA3944F95}" name="Security Requirement" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{1877231E-86C6-495D-8E33-A24491FC343D}" name="Rationale" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{8B9E6CF2-B35E-45EF-9DE1-7F3D31FFA96C}" name="Notes" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9B0EE924-28F1-4EBD-BDA5-7A49621AE4C5}" name="Table10" displayName="Table10" ref="A1:B11" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9B0EE924-28F1-4EBD-BDA5-7A49621AE4C5}" name="Table10" displayName="Table10" ref="A1:B11" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:B11" xr:uid="{9B0EE924-28F1-4EBD-BDA5-7A49621AE4C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F701EF55-E9F6-41A3-BD0C-1E01FA828596}" name="Web Application Requirement" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{43B1CAAF-65F3-4381-938B-78ED44A9EC18}" name="Rationale" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{F701EF55-E9F6-41A3-BD0C-1E01FA828596}" name="Web Application Requirement" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{43B1CAAF-65F3-4381-938B-78ED44A9EC18}" name="Rationale" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3222,11 +3351,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C77689-1C7E-4AC4-B13E-A0A7936CB7FB}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="133.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.42578125" style="8" customWidth="1"/>
@@ -3235,374 +3364,380 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="26.25">
+      <c r="D1" s="78" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="32"/>
-    </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="33.75">
+      <c r="D2" s="79"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="33.75" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="32"/>
-    </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="33.75">
+      <c r="D3" s="80" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="33.75" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="32"/>
-    </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="33.75">
+      <c r="D4" s="81" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="33.75" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="32"/>
-    </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="33.75">
+      <c r="D5" s="82" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="33.75" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="32"/>
-    </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="33.75">
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="33.75" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="32" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="63">
+    <row r="8" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="47.25">
+    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="47.25">
+    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="27" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.5">
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="27" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.5">
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="33" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="33" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="31.5">
+    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="27" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="31.5">
+    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" ht="63">
+    <row r="21" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="63" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" ht="31.5">
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="29"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="29"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="29"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="29"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="31.5">
+    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="27" t="s">
+      <c r="B28" s="28"/>
+      <c r="C28" s="26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="29"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="63">
+    <row r="30" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="28" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="31.5">
+    <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="28" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="63">
+    <row r="33" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="28" t="s">
         <v>53</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="31.5">
+    <row r="35" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="28" t="s">
         <v>58</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="28" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" ht="31.5">
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="28" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="63">
+    <row r="38" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="28" t="s">
         <v>58</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="29"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="29"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
-      <c r="B41" s="30"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="7"/>
     </row>
   </sheetData>
@@ -3622,129 +3757,129 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82.85546875" customWidth="1"/>
     <col min="2" max="2" width="54.85546875" customWidth="1"/>
     <col min="3" max="3" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="59" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5">
-      <c r="A2" s="73" t="s">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-    </row>
-    <row r="3" spans="1:3" ht="31.5">
-      <c r="A3" s="66" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+    </row>
+    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="s">
         <v>283</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-    </row>
-    <row r="4" spans="1:3" ht="31.5">
-      <c r="A4" s="73" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+    </row>
+    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="70" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-    </row>
-    <row r="5" spans="1:3" ht="31.5">
-      <c r="A5" s="66" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+    </row>
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="63" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-    </row>
-    <row r="6" spans="1:3" ht="47.25">
-      <c r="A6" s="73" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+    </row>
+    <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74" t="s">
+      <c r="B6" s="71"/>
+      <c r="C6" s="71" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5">
-      <c r="A7" s="66" t="s">
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="63" t="s">
         <v>288</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-    </row>
-    <row r="8" spans="1:3" ht="31.5">
-      <c r="A8" s="73" t="s">
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+    </row>
+    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
         <v>289</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75">
-      <c r="A9" s="66"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75">
-      <c r="A10" s="73"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75">
-      <c r="A11" s="66"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.75">
-      <c r="A12" s="73"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75">
-      <c r="A13" s="66"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75">
-      <c r="A14" s="73"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75">
-      <c r="A15" s="66"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75">
-      <c r="A16" s="73"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75">
-      <c r="A17" s="66"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75">
-      <c r="A18" s="73"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="63"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="63"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="63"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="70"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="63"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="63"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3762,241 +3897,241 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="89" customWidth="1"/>
     <col min="2" max="2" width="63.28515625" customWidth="1"/>
     <col min="3" max="3" width="54.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="54" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="49" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="50" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
-      <c r="A4" s="49" t="s">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>293</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="49" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45">
-      <c r="A5" s="50" t="s">
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
         <v>294</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="50" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
-      <c r="A6" s="49" t="s">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="49" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
-      <c r="A7" s="50" t="s">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
         <v>296</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="50" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
-      <c r="A8" s="49" t="s">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="49" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
-      <c r="A9" s="50" t="s">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="50" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30">
-      <c r="A10" s="49" t="s">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="49" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30">
-      <c r="A11" s="50" t="s">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="50" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30">
-      <c r="A12" s="49" t="s">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="49" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45">
-      <c r="A13" s="50" t="s">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="s">
         <v>302</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="50" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="31.5">
-      <c r="A14" s="49" t="s">
+    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
         <v>303</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="49" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45">
-      <c r="A15" s="50" t="s">
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="50" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="45">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
         <v>307</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="51" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30">
-      <c r="A17" s="51" t="s">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="51" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30">
-      <c r="A18" s="51" t="s">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
         <v>309</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="51" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30">
-      <c r="A19" s="51" t="s">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
         <v>310</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="51" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30">
-      <c r="A20" s="51" t="s">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="51" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30">
-      <c r="A21" s="58" t="s">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="56" t="s">
         <v>291</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="57" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4016,89 +4151,89 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="110.140625" style="37" customWidth="1"/>
-    <col min="2" max="2" width="125.140625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="110.140625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="125.140625" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="36"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="36" t="s">
+      <c r="B2" s="35"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B3" s="36"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="36" t="s">
+      <c r="B3" s="35"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="B9" s="36"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="36" t="s">
+      <c r="B9" s="35"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="B10" s="36"/>
-    </row>
-    <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="36" t="s">
+      <c r="B10" s="35"/>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4116,7 +4251,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="128.7109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="49.5703125" style="9" customWidth="1"/>
@@ -4127,32 +4262,32 @@
     <col min="7" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25">
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="13"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B3" s="13"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
     </row>
-    <row r="5" spans="1:3" ht="31.5">
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>67</v>
       </c>
@@ -4161,119 +4296,119 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="47.25">
+    <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>69</v>
       </c>
       <c r="B6" s="13"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="13"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="13"/>
     </row>
-    <row r="11" spans="1:3" ht="15.75">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
     </row>
-    <row r="12" spans="1:3" ht="15.75">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B12" s="13"/>
     </row>
-    <row r="13" spans="1:3" ht="15.75">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B13" s="13"/>
     </row>
-    <row r="14" spans="1:3" ht="15.75">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="13"/>
     </row>
-    <row r="15" spans="1:3" ht="31.5">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>75</v>
       </c>
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="1:3" ht="47.25">
+    <row r="16" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>76</v>
       </c>
       <c r="B16" s="13"/>
     </row>
-    <row r="17" spans="1:2" ht="15.75">
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>77</v>
       </c>
       <c r="B17" s="13"/>
     </row>
-    <row r="18" spans="1:2" ht="15.75">
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
     </row>
-    <row r="19" spans="1:2" ht="15.75">
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B19" s="13"/>
     </row>
-    <row r="20" spans="1:2" ht="15.75">
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
     </row>
-    <row r="21" spans="1:2" ht="31.5">
+    <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>79</v>
       </c>
       <c r="B21" s="13"/>
     </row>
-    <row r="22" spans="1:2" ht="15.75">
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
     </row>
-    <row r="23" spans="1:2" ht="15.75">
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>80</v>
       </c>
       <c r="B23" s="13"/>
     </row>
-    <row r="24" spans="1:2" ht="15.75">
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B24" s="13"/>
     </row>
-    <row r="25" spans="1:2" ht="15.75">
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
     </row>
-    <row r="26" spans="1:2" ht="15.75">
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>82</v>
       </c>
       <c r="B26" s="13"/>
     </row>
-    <row r="27" spans="1:2" ht="31.5">
+    <row r="27" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>83</v>
       </c>
@@ -4281,37 +4416,37 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="157.5">
+    <row r="28" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>85</v>
       </c>
       <c r="B28" s="13"/>
     </row>
-    <row r="29" spans="1:2" ht="15.75">
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
     </row>
-    <row r="30" spans="1:2" ht="15.75">
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B30" s="13"/>
     </row>
-    <row r="31" spans="1:2" ht="15.75">
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
     </row>
-    <row r="32" spans="1:2" ht="15.75">
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>87</v>
       </c>
       <c r="B32" s="13"/>
     </row>
-    <row r="33" spans="1:2" ht="15.75">
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
     </row>
-    <row r="34" spans="1:2" ht="15.75">
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>88</v>
       </c>
@@ -4319,21 +4454,21 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75">
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
     </row>
-    <row r="36" spans="1:2" ht="15.75">
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B36" s="13"/>
     </row>
-    <row r="37" spans="1:2" ht="15.75">
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
     </row>
-    <row r="38" spans="1:2" ht="15.75">
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>91</v>
       </c>
@@ -4341,95 +4476,95 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75">
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
     </row>
-    <row r="40" spans="1:2" ht="15.75">
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B40" s="13"/>
     </row>
-    <row r="41" spans="1:2" ht="15.75">
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
     </row>
-    <row r="42" spans="1:2" ht="15.75">
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>94</v>
       </c>
       <c r="B42" s="13"/>
     </row>
-    <row r="43" spans="1:2" ht="31.5">
+    <row r="43" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="13"/>
     </row>
-    <row r="44" spans="1:2" ht="15.75">
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
     </row>
-    <row r="45" spans="1:2" ht="15.75">
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B45" s="13"/>
     </row>
-    <row r="46" spans="1:2" ht="15.75">
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
     </row>
-    <row r="47" spans="1:2" ht="15.75">
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B47" s="13"/>
     </row>
-    <row r="48" spans="1:2" ht="15.75">
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
     </row>
-    <row r="49" spans="1:2" ht="31.5">
+    <row r="49" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>98</v>
       </c>
       <c r="B49" s="13"/>
     </row>
-    <row r="50" spans="1:2" ht="31.5">
+    <row r="50" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>99</v>
       </c>
       <c r="B50" s="13"/>
     </row>
-    <row r="51" spans="1:2" ht="31.5">
+    <row r="51" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>100</v>
       </c>
       <c r="B51" s="13"/>
     </row>
-    <row r="52" spans="1:2" ht="31.5">
+    <row r="52" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>101</v>
       </c>
       <c r="B52" s="13"/>
     </row>
-    <row r="53" spans="1:2" ht="15.75">
+    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
     </row>
-    <row r="54" spans="1:2" ht="15.75">
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>102</v>
       </c>
       <c r="B54" s="13"/>
     </row>
-    <row r="55" spans="1:2" ht="15.75">
+    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="13"/>
     </row>
-    <row r="56" spans="1:2" ht="15.75">
+    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>103</v>
       </c>
@@ -4449,10 +4584,10 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C1" sqref="C1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="105.5703125" style="10" customWidth="1"/>
     <col min="2" max="2" width="72.5703125" style="9" customWidth="1"/>
@@ -4461,83 +4596,104 @@
     <col min="5" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="C1" s="78" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="15"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75">
+      <c r="C2" s="79"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>105</v>
       </c>
       <c r="B3" s="17"/>
-    </row>
-    <row r="4" spans="1:4" ht="31.5">
+      <c r="C3" s="80" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>106</v>
       </c>
       <c r="B4" s="17"/>
-    </row>
-    <row r="5" spans="1:4" ht="31.5">
+      <c r="C4" s="81" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>107</v>
       </c>
       <c r="B5" s="17"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75">
+      <c r="C5" s="82" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>108</v>
       </c>
       <c r="B6" s="17"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="31.5">
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>109</v>
       </c>
       <c r="B7" s="17"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75">
+      <c r="C7" s="76"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>110</v>
       </c>
       <c r="B8" s="17"/>
-    </row>
-    <row r="9" spans="1:4" ht="31.5">
+      <c r="C8" s="76"/>
+    </row>
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>111</v>
       </c>
       <c r="B9" s="17"/>
-    </row>
-    <row r="10" spans="1:4" s="10" customFormat="1" ht="47.25">
+      <c r="C9" s="76"/>
+    </row>
+    <row r="10" spans="1:4" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="17"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:4" s="10" customFormat="1" ht="31.5">
+    <row r="11" spans="1:4" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>113</v>
       </c>
       <c r="B11" s="17"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="17"/>
-    </row>
-    <row r="13" spans="1:4" s="10" customFormat="1" ht="15.75">
+      <c r="C12" s="76"/>
+    </row>
+    <row r="13" spans="1:4" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>114</v>
       </c>
       <c r="B13" s="18"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="9"/>
     </row>
   </sheetData>
@@ -4557,392 +4713,392 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="36"/>
-    </row>
-    <row r="3" spans="1:2" ht="60">
-      <c r="A3" s="36" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="60">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="36" t="s">
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="36" t="s">
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="120">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="36" t="s">
+    <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="45">
-      <c r="A18" s="36" t="s">
+    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="36" t="s">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="36" t="s">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="36" t="s">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="36" t="s">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="36" t="s">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="105">
-      <c r="A24" s="36" t="s">
+    <row r="24" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="36" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="36" t="s">
+    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="45">
-      <c r="A27" s="36" t="s">
+    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="36" t="s">
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="60">
-      <c r="A29" s="36" t="s">
+    <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="135">
-      <c r="A30" s="36" t="s">
+    <row r="30" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="36" t="s">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="36"/>
-    </row>
-    <row r="33" spans="1:1" ht="45">
-      <c r="A33" s="36" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
+    </row>
+    <row r="33" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="60">
-      <c r="A34" s="36" t="s">
+    <row r="34" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="35" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="45">
-      <c r="A35" s="36" t="s">
+    <row r="35" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="35" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="30">
-      <c r="A36" s="36" t="s">
+    <row r="36" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="30">
-      <c r="A37" s="36" t="s">
+    <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="35" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="30">
-      <c r="A38" s="36" t="s">
+    <row r="38" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="36"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="36" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="35"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="35" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="45">
-      <c r="A41" s="36" t="s">
+    <row r="41" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="35" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="36"/>
-    </row>
-    <row r="43" spans="1:1" ht="45">
-      <c r="A43" s="36" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="35"/>
+    </row>
+    <row r="43" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="35" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="30">
-      <c r="A44" s="36" t="s">
+    <row r="44" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="35" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="36"/>
-    </row>
-    <row r="46" spans="1:1" ht="60">
-      <c r="A46" s="36" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="35"/>
+    </row>
+    <row r="46" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="165">
-      <c r="A47" s="36" t="s">
+    <row r="47" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A47" s="35" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="90">
-      <c r="A48" s="36" t="s">
+    <row r="48" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="35" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="36"/>
-    </row>
-    <row r="50" spans="1:1" ht="30">
-      <c r="A50" s="36" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="35"/>
+    </row>
+    <row r="50" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="35" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="36"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="36"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="36"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="36"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="36"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="36"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="36"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="36"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="36"/>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="36"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="36"/>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="36"/>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="36"/>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="36"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="36"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="36"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="36"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="67"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="36"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="36"/>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="36"/>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="36"/>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="36"/>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="36"/>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="67"/>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="36"/>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="36"/>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="36"/>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="36"/>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="36"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="36"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="36"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="36"/>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="36"/>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="36"/>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="36"/>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="36"/>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="36"/>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="67" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="35"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="35"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="35"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="35"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="35"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="35"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="35"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="35"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="35"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="35"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="35"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="35"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="35"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="35"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="35"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="35"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="35"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="64"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="35"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="35"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="35"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="35"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="35"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="35"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="64"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="35"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="35"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="35"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="35"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="35"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="35"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="35"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="35"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="35"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="35"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="35"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="35"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="35"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="64" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="36"/>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="36"/>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="36"/>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="67" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="35"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="35"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="35"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="64" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4960,331 +5116,331 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="140.42578125" customWidth="1"/>
     <col min="2" max="2" width="55.85546875" customWidth="1"/>
     <col min="3" max="3" width="73.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="60" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="24"/>
-    </row>
-    <row r="3" spans="1:3" ht="31.5">
-      <c r="A3" s="25" t="s">
+      <c r="C2" s="23"/>
+    </row>
+    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="26"/>
-    </row>
-    <row r="4" spans="1:3" ht="47.25">
-      <c r="A4" s="23" t="s">
+      <c r="C3" s="25"/>
+    </row>
+    <row r="4" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="24"/>
-    </row>
-    <row r="5" spans="1:3" ht="31.5">
-      <c r="A5" s="25" t="s">
+      <c r="C4" s="23"/>
+    </row>
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="26"/>
-    </row>
-    <row r="6" spans="1:3" ht="47.25">
-      <c r="A6" s="23" t="s">
+      <c r="C5" s="25"/>
+    </row>
+    <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="26"/>
-    </row>
-    <row r="8" spans="1:3" ht="31.5">
-      <c r="A8" s="23" t="s">
+      <c r="C7" s="25"/>
+    </row>
+    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="24"/>
-    </row>
-    <row r="9" spans="1:3" ht="47.25">
-      <c r="A9" s="25" t="s">
+      <c r="C8" s="23"/>
+    </row>
+    <row r="9" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="63">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="24"/>
-    </row>
-    <row r="11" spans="1:3" ht="31.5">
-      <c r="A11" s="25" t="s">
+      <c r="C10" s="23"/>
+    </row>
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C11" s="26"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.75">
-      <c r="A12" s="25" t="s">
+      <c r="C11" s="25"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="26"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75">
-      <c r="A13" s="23" t="s">
+      <c r="C12" s="25"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C13" s="24"/>
-    </row>
-    <row r="14" spans="1:3" ht="31.5">
-      <c r="A14" s="25" t="s">
+      <c r="C13" s="23"/>
+    </row>
+    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="26"/>
-    </row>
-    <row r="15" spans="1:3" ht="31.5">
-      <c r="A15" s="23" t="s">
+      <c r="C14" s="25"/>
+    </row>
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="24"/>
-    </row>
-    <row r="16" spans="1:3" ht="31.5">
-      <c r="A16" s="25" t="s">
+      <c r="C15" s="23"/>
+    </row>
+    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="C16" s="26"/>
-    </row>
-    <row r="17" spans="1:3" ht="31.5">
-      <c r="A17" s="25" t="s">
+      <c r="C16" s="25"/>
+    </row>
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="26"/>
-    </row>
-    <row r="18" spans="1:3" ht="31.5">
-      <c r="A18" s="23" t="s">
+      <c r="C17" s="25"/>
+    </row>
+    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="24"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75">
-      <c r="A19" s="25" t="s">
+      <c r="C18" s="23"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75">
-      <c r="A20" s="23" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="C20" s="24"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75">
-      <c r="A21" s="25" t="s">
+      <c r="C20" s="23"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="C21" s="26"/>
-    </row>
-    <row r="22" spans="1:3" ht="31.5">
-      <c r="A22" s="23" t="s">
+      <c r="C21" s="25"/>
+    </row>
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="24"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75">
-      <c r="A23" s="25" t="s">
+      <c r="C22" s="23"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="C23" s="26"/>
-    </row>
-    <row r="24" spans="1:3" ht="31.5">
-      <c r="A24" s="23" t="s">
+      <c r="C23" s="25"/>
+    </row>
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="24"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75">
-      <c r="A25" s="23" t="s">
+      <c r="C24" s="23"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="C25" s="24"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75">
-      <c r="A26" s="25" t="s">
+      <c r="C25" s="23"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="C26" s="26"/>
-    </row>
-    <row r="27" spans="1:3" ht="31.5">
-      <c r="A27" s="23" t="s">
+      <c r="C26" s="25"/>
+    </row>
+    <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="C27" s="24"/>
-    </row>
-    <row r="28" spans="1:3" ht="31.5">
-      <c r="A28" s="25" t="s">
+      <c r="C27" s="23"/>
+    </row>
+    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="26"/>
-    </row>
-    <row r="29" spans="1:3" ht="15.75">
-      <c r="A29" s="23" t="s">
+      <c r="C28" s="25"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C29" s="24"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75">
-      <c r="A30" s="25" t="s">
+      <c r="C29" s="23"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="C30" s="26"/>
-    </row>
-    <row r="31" spans="1:3" ht="31.5">
-      <c r="A31" s="23" t="s">
+      <c r="C30" s="25"/>
+    </row>
+    <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="C31" s="24"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75">
-      <c r="A32" s="25" t="s">
+      <c r="C31" s="23"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="C32" s="26"/>
-    </row>
-    <row r="33" spans="1:3" ht="31.5">
-      <c r="A33" s="23" t="s">
+      <c r="C32" s="25"/>
+    </row>
+    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="24"/>
-    </row>
-    <row r="34" spans="1:3" ht="157.5">
-      <c r="A34" s="25" t="s">
+      <c r="C33" s="23"/>
+    </row>
+    <row r="34" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="C34" s="26"/>
-    </row>
-    <row r="35" spans="1:3" ht="180">
-      <c r="A35" s="64" t="s">
+      <c r="C34" s="25"/>
+    </row>
+    <row r="35" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A35" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="C35" s="64"/>
+      <c r="C35" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5299,114 +5455,155 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C1" sqref="C1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.140625" style="37" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="37" customWidth="1"/>
+    <col min="1" max="1" width="94.85546875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="78" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="42"/>
-    </row>
-    <row r="3" spans="1:3" ht="30">
-      <c r="A3" s="69" t="s">
+      <c r="C1" s="78" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="66" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="70" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="30">
-      <c r="A5" s="71" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="81" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="68" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="30">
-      <c r="A6" s="36" t="s">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="40"/>
-    </row>
-    <row r="7" spans="1:3" ht="30">
-      <c r="A7" s="70" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="39"/>
-    </row>
-    <row r="8" spans="1:3" ht="30">
-      <c r="A8" s="69" t="s">
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="66" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="70" t="s">
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="67" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="69" t="s">
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="66" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="30">
-      <c r="A11" s="72" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="69" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="72" t="s">
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="69" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="45">
-      <c r="A13" s="70" t="s">
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="67" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="30">
-      <c r="A14" s="71" t="s">
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="68" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="71" t="s">
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="68" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="36" t="s">
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="B16" s="40"/>
-    </row>
-    <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="72" t="s">
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="69" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="72" t="s">
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="69" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="70" t="s">
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="67" t="s">
         <v>242</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5426,128 +5623,128 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="148.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="91" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="35"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="35" t="s">
+      <c r="B2" s="34"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="35"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="35" t="s">
+      <c r="B3" s="34"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="35"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="35" t="s">
+      <c r="B4" s="34"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="B5" s="35"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="35" t="s">
+      <c r="B5" s="34"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="B6" s="35"/>
-    </row>
-    <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="65" t="s">
+      <c r="B6" s="34"/>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="B7" s="35"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="35" t="s">
+      <c r="B7" s="34"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="B8" s="35"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="35" t="s">
+      <c r="B8" s="34"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="35" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="35"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="35" t="s">
+      <c r="B10" s="34"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="B11" s="35"/>
-    </row>
-    <row r="12" spans="1:2" ht="28.5" customHeight="1">
-      <c r="A12" s="35" t="s">
+      <c r="B11" s="34"/>
+    </row>
+    <row r="12" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="35" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="B13" s="35"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="35" t="s">
+      <c r="B13" s="34"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="B14" s="35"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="35" t="s">
+      <c r="B14" s="34"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="B15" s="35"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="35" t="s">
+      <c r="B15" s="34"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="35" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="34" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="35" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="35" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5560,79 +5757,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3019103-9AB2-42D9-9044-FCE29DC03308}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="89.140625" customWidth="1"/>
     <col min="2" max="2" width="62.28515625" customWidth="1"/>
     <col min="3" max="3" width="85.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="405">
-      <c r="A2" s="76" t="s">
+    <row r="2" spans="1:3" ht="405" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="42" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="240">
-      <c r="A3" s="77" t="s">
+    <row r="3" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="45"/>
-    </row>
-    <row r="4" spans="1:3" ht="195">
-      <c r="A4" s="45" t="s">
+      <c r="C3" s="42"/>
+    </row>
+    <row r="4" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="45"/>
-    </row>
-    <row r="5" spans="1:3" ht="270">
-      <c r="A5" s="45" t="s">
+      <c r="C4" s="42"/>
+    </row>
+    <row r="5" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="C5" s="45"/>
-    </row>
-    <row r="6" spans="1:3" ht="240">
-      <c r="A6" s="45" t="s">
+      <c r="C5" s="42"/>
+    </row>
+    <row r="6" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="42" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="180">
-      <c r="A7" s="78" t="s">
+    <row r="7" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
         <v>280</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="42" t="s">
         <v>281</v>
       </c>
     </row>
@@ -5651,7 +5848,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5908,6 +6105,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="9737d3a9-2335-4c07-b0b2-c288a40e3b20">
@@ -5919,23 +6125,41 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ACA3515-6CF0-4E04-B9AB-DD827CFACE6B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ACA3515-6CF0-4E04-B9AB-DD827CFACE6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9737d3a9-2335-4c07-b0b2-c288a40e3b20"/>
+    <ds:schemaRef ds:uri="aaa18e45-0655-4974-9c56-32601d3204f4"/>
+    <ds:schemaRef ds:uri="8730efe7-2fa2-4804-9755-7d04b0b198a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE135C6B-5C55-474E-AA19-7311B2FCE9D9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFA658F1-49A2-441D-8CD0-FD2278FECEF5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFA658F1-49A2-441D-8CD0-FD2278FECEF5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE135C6B-5C55-474E-AA19-7311B2FCE9D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9737d3a9-2335-4c07-b0b2-c288a40e3b20"/>
+    <ds:schemaRef ds:uri="8730efe7-2fa2-4804-9755-7d04b0b198a4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>